--- a/docs/M431/Kostenberechnung.xlsx
+++ b/docs/M431/Kostenberechnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\wiss-docs\docs\M431\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B61569-54D0-4E3B-93A7-E66BE0E24340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC72C53D-4A53-4F48-B480-8F1AA19E9EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{FC2A0950-BC96-4E51-9CAA-71570EFC6B7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Kostenberechnung</t>
   </si>
@@ -47,16 +47,37 @@
     <t>Anz. Mitarbeiter</t>
   </si>
   <si>
-    <t>Laufende Kosten:</t>
-  </si>
-  <si>
     <t>Total:</t>
   </si>
   <si>
     <t>Total Personalkosten:</t>
   </si>
   <si>
-    <t>Arbeitszeit Total:</t>
+    <t>Laufende Mehrkosten:</t>
+  </si>
+  <si>
+    <t>Raum- &amp; Unterhaltskosten:</t>
+  </si>
+  <si>
+    <t>Arbeitszeit Total  (h):</t>
+  </si>
+  <si>
+    <t>Hardwarekosten pro Person:</t>
+  </si>
+  <si>
+    <t>Lizenzkosten pro Person:</t>
+  </si>
+  <si>
+    <t>Total Soft- &amp; Hardwarekosten:</t>
+  </si>
+  <si>
+    <t>Reisespesen:</t>
+  </si>
+  <si>
+    <t>Andere Spesen:</t>
+  </si>
+  <si>
+    <t>Variable Kosten:</t>
   </si>
 </sst>
 </file>
@@ -105,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -123,13 +144,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -141,28 +162,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -171,69 +177,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -243,18 +191,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -590,16 +540,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56AA8BC-F3E8-4AEE-90BD-2814CDCEA640}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -608,7 +558,6 @@
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
@@ -618,46 +567,111 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
         <f>B4*B5</f>
         <v>9000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <f>(B9+B10)*B3</f>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="10">
-        <f>B6+B7</f>
-        <v>9000</v>
-      </c>
+      <c r="B16" s="10">
+        <f>SUM(B6:B15)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
